--- a/_data/collections.xlsx
+++ b/_data/collections.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>reference</t>
   </si>
@@ -62,9 +62,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>cours1</t>
-  </si>
-  <si>
     <t>Tutoriel HTML</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
   </si>
   <si>
     <t>JavaScript Tutorial</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -418,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +420,7 @@
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,7 +457,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -474,16 +465,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -491,33 +482,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -525,9 +499,8 @@
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/_data/collections.xlsx
+++ b/_data/collections.xlsx
@@ -2,18 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\formation-dev\tuto-developpeur\tuto-developpeur\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" r:id="rId1"/>
+    <sheet name="resource_categories" sheetId="3" r:id="rId2"/>
+    <sheet name="tutorials" sheetId="2" r:id="rId3"/>
+    <sheet name="self_learnings" sheetId="4" r:id="rId4"/>
+    <sheet name="concept_categories" sheetId="5" r:id="rId5"/>
+    <sheet name="concepts" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tutorials!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="293">
   <si>
     <t>reference</t>
   </si>
@@ -81,6 +89,828 @@
   </si>
   <si>
     <t>JavaScript Tutorial</t>
+  </si>
+  <si>
+    <t>learning_order</t>
+  </si>
+  <si>
+    <t>ressource</t>
+  </si>
+  <si>
+    <t>html-forms</t>
+  </si>
+  <si>
+    <t>html-tutorial</t>
+  </si>
+  <si>
+    <t>HTML Forms</t>
+  </si>
+  <si>
+    <t>HTML Graphics</t>
+  </si>
+  <si>
+    <t>HTML Media</t>
+  </si>
+  <si>
+    <t>HTML APIs</t>
+  </si>
+  <si>
+    <t>HTML Examples</t>
+  </si>
+  <si>
+    <t>HTML References</t>
+  </si>
+  <si>
+    <t>html-APIs</t>
+  </si>
+  <si>
+    <t>html-graphics</t>
+  </si>
+  <si>
+    <t>html-media</t>
+  </si>
+  <si>
+    <t>html-examples</t>
+  </si>
+  <si>
+    <t>html-references</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>resource_categories</t>
+  </si>
+  <si>
+    <t>HTML HOME</t>
+  </si>
+  <si>
+    <t>HTML Introduction</t>
+  </si>
+  <si>
+    <t>HTML Editors</t>
+  </si>
+  <si>
+    <t>HTML Basic</t>
+  </si>
+  <si>
+    <t>HTML Elements</t>
+  </si>
+  <si>
+    <t>HTML Attributes</t>
+  </si>
+  <si>
+    <t>HTML Headings</t>
+  </si>
+  <si>
+    <t>HTML Paragraphs</t>
+  </si>
+  <si>
+    <t>HTML Styles</t>
+  </si>
+  <si>
+    <t>HTML Formatting</t>
+  </si>
+  <si>
+    <t>HTML Quotations</t>
+  </si>
+  <si>
+    <t>HTML Comments</t>
+  </si>
+  <si>
+    <t>HTML Colors</t>
+  </si>
+  <si>
+    <t>HTML CSS</t>
+  </si>
+  <si>
+    <t>HTML Links</t>
+  </si>
+  <si>
+    <t>HTML Images</t>
+  </si>
+  <si>
+    <t>HTML Favicon</t>
+  </si>
+  <si>
+    <t>HTML Page Title</t>
+  </si>
+  <si>
+    <t>HTML Tables</t>
+  </si>
+  <si>
+    <t>HTML Lists</t>
+  </si>
+  <si>
+    <t>HTML Block &amp; Inline</t>
+  </si>
+  <si>
+    <t>HTML Div</t>
+  </si>
+  <si>
+    <t>HTML Classes</t>
+  </si>
+  <si>
+    <t>HTML Id</t>
+  </si>
+  <si>
+    <t>HTML Iframes</t>
+  </si>
+  <si>
+    <t>HTML JavaScript</t>
+  </si>
+  <si>
+    <t>HTML File Paths</t>
+  </si>
+  <si>
+    <t>HTML Head</t>
+  </si>
+  <si>
+    <t>HTML Layout</t>
+  </si>
+  <si>
+    <t>HTML Responsive</t>
+  </si>
+  <si>
+    <t>HTML Computercode</t>
+  </si>
+  <si>
+    <t>HTML Semantics</t>
+  </si>
+  <si>
+    <t>HTML Style Guide</t>
+  </si>
+  <si>
+    <t>HTML Entities</t>
+  </si>
+  <si>
+    <t>HTML Symbols</t>
+  </si>
+  <si>
+    <t>HTML Emojis</t>
+  </si>
+  <si>
+    <t>HTML Charsets</t>
+  </si>
+  <si>
+    <t>HTML URL Encode</t>
+  </si>
+  <si>
+    <t>HTML vs. XHTML</t>
+  </si>
+  <si>
+    <t>html-w3schools/html-tutorial</t>
+  </si>
+  <si>
+    <t>HTML Form Attributes</t>
+  </si>
+  <si>
+    <t>HTML Form Elements</t>
+  </si>
+  <si>
+    <t>HTML Input Types</t>
+  </si>
+  <si>
+    <t>HTML Input Attributes</t>
+  </si>
+  <si>
+    <t>Input Form Attributes</t>
+  </si>
+  <si>
+    <t>html-w3schools/html-forms</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/default.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_editors.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_basic.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_elements.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_attributes.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_headings.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_paragraphs.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_styles.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_formatting.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_comments.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_colors.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_css.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_links.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_images.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_favicon.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_tables.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_lists.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_div.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_classes.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_id.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_quotation_elements.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_page_title.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_blocks.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_iframe.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_scripts.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_filepaths.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_head.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_layout.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_responsive.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_computercode_elements.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html5_semantic_elements.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html5_syntax.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_entities.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_symbols.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_emojis.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_charset.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_urlencode.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_xhtml.asp</t>
+  </si>
+  <si>
+    <t>apprendre-html</t>
+  </si>
+  <si>
+    <t>Apprendre HTML</t>
+  </si>
+  <si>
+    <t>Apprendre CSS</t>
+  </si>
+  <si>
+    <t>Apprendre Javascript</t>
+  </si>
+  <si>
+    <t>self_learning</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Structure de base</t>
+  </si>
+  <si>
+    <t>Contenu et structure de la page</t>
+  </si>
+  <si>
+    <t>Visuels et multimédia</t>
+  </si>
+  <si>
+    <t>Interactivité</t>
+  </si>
+  <si>
+    <t>Sujets avancés</t>
+  </si>
+  <si>
+    <t>API (Interfaces de programmation d'applications)</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>concept_categories</t>
+  </si>
+  <si>
+    <t>html-home</t>
+  </si>
+  <si>
+    <t>Introduction au HTML</t>
+  </si>
+  <si>
+    <t>Introduction to HTML</t>
+  </si>
+  <si>
+    <t>introduction-to-html</t>
+  </si>
+  <si>
+    <t>Éditeurs HTML</t>
+  </si>
+  <si>
+    <t>html-editors</t>
+  </si>
+  <si>
+    <t>HTML de base</t>
+  </si>
+  <si>
+    <t>Basic HTML</t>
+  </si>
+  <si>
+    <t>basic-html</t>
+  </si>
+  <si>
+    <t>Éléments HTML</t>
+  </si>
+  <si>
+    <t>html-elements</t>
+  </si>
+  <si>
+    <t>Attributs HTML</t>
+  </si>
+  <si>
+    <t>html-attributes</t>
+  </si>
+  <si>
+    <t>En-têtes HTML</t>
+  </si>
+  <si>
+    <t>html-headings</t>
+  </si>
+  <si>
+    <t>Paragraphes HTML</t>
+  </si>
+  <si>
+    <t>html-paragraphs</t>
+  </si>
+  <si>
+    <t>Tableaux HTML</t>
+  </si>
+  <si>
+    <t>html-tables</t>
+  </si>
+  <si>
+    <t>Listes HTML</t>
+  </si>
+  <si>
+    <t>html-lists</t>
+  </si>
+  <si>
+    <t>Éléments HTML bloc et inline</t>
+  </si>
+  <si>
+    <t>HTML Block and Inline Elements</t>
+  </si>
+  <si>
+    <t>html-block-and-inline-elements</t>
+  </si>
+  <si>
+    <t>Div HTML</t>
+  </si>
+  <si>
+    <t>html-div</t>
+  </si>
+  <si>
+    <t>Classes HTML</t>
+  </si>
+  <si>
+    <t>html-classes</t>
+  </si>
+  <si>
+    <t>ID HTML</t>
+  </si>
+  <si>
+    <t>HTML ID</t>
+  </si>
+  <si>
+    <t>html-id</t>
+  </si>
+  <si>
+    <t>Sémantique HTML</t>
+  </si>
+  <si>
+    <t>html-semantics</t>
+  </si>
+  <si>
+    <t>Mise en page HTML</t>
+  </si>
+  <si>
+    <t>html-layout</t>
+  </si>
+  <si>
+    <t>Design réactif HTML</t>
+  </si>
+  <si>
+    <t>Responsive HTML Design</t>
+  </si>
+  <si>
+    <t>responsive-html-design</t>
+  </si>
+  <si>
+    <t>Couleurs HTML</t>
+  </si>
+  <si>
+    <t>html-colors</t>
+  </si>
+  <si>
+    <t>Liens HTML</t>
+  </si>
+  <si>
+    <t>html-links</t>
+  </si>
+  <si>
+    <t>Images HTML</t>
+  </si>
+  <si>
+    <t>html-images</t>
+  </si>
+  <si>
+    <t>Formulaires HTML</t>
+  </si>
+  <si>
+    <t>Frames HTML</t>
+  </si>
+  <si>
+    <t>HTML Frames</t>
+  </si>
+  <si>
+    <t>html-frames</t>
+  </si>
+  <si>
+    <t>Introduction au CSS</t>
+  </si>
+  <si>
+    <t>Introduction to CSS</t>
+  </si>
+  <si>
+    <t>introduction-to-css</t>
+  </si>
+  <si>
+    <t>Sélecteurs CSS</t>
+  </si>
+  <si>
+    <t>CSS Selectors</t>
+  </si>
+  <si>
+    <t>css-selectors</t>
+  </si>
+  <si>
+    <t>Propriétés CSS</t>
+  </si>
+  <si>
+    <t>CSS Properties</t>
+  </si>
+  <si>
+    <t>css-properties</t>
+  </si>
+  <si>
+    <t>Mise en page CSS</t>
+  </si>
+  <si>
+    <t>CSS Layout</t>
+  </si>
+  <si>
+    <t>css-layout</t>
+  </si>
+  <si>
+    <t>Typographie CSS</t>
+  </si>
+  <si>
+    <t>CSS Typography</t>
+  </si>
+  <si>
+    <t>css-typography</t>
+  </si>
+  <si>
+    <t>Couleurs CSS</t>
+  </si>
+  <si>
+    <t>CSS Colors</t>
+  </si>
+  <si>
+    <t>css-colors</t>
+  </si>
+  <si>
+    <t>Arrière-plans CSS</t>
+  </si>
+  <si>
+    <t>CSS Backgrounds</t>
+  </si>
+  <si>
+    <t>css-backgrounds</t>
+  </si>
+  <si>
+    <t>Bordures CSS</t>
+  </si>
+  <si>
+    <t>CSS Borders</t>
+  </si>
+  <si>
+    <t>css-borders</t>
+  </si>
+  <si>
+    <t>Marges et paddings CSS</t>
+  </si>
+  <si>
+    <t>CSS Margins and Padding</t>
+  </si>
+  <si>
+    <t>css-margins-and-padding</t>
+  </si>
+  <si>
+    <t>Positionnement CSS</t>
+  </si>
+  <si>
+    <t>CSS Positioning</t>
+  </si>
+  <si>
+    <t>css-positioning</t>
+  </si>
+  <si>
+    <t>Animations CSS</t>
+  </si>
+  <si>
+    <t>CSS Animations</t>
+  </si>
+  <si>
+    <t>css-animations</t>
+  </si>
+  <si>
+    <t>Transitions CSS</t>
+  </si>
+  <si>
+    <t>CSS Transitions</t>
+  </si>
+  <si>
+    <t>css-transitions</t>
+  </si>
+  <si>
+    <t>Pseudo-éléments CSS</t>
+  </si>
+  <si>
+    <t>CSS Pseudo-elements</t>
+  </si>
+  <si>
+    <t>css-pseudo-elements</t>
+  </si>
+  <si>
+    <t>Médias CSS</t>
+  </si>
+  <si>
+    <t>CSS Media Queries</t>
+  </si>
+  <si>
+    <t>css-media-queries</t>
+  </si>
+  <si>
+    <t>Boîtes flexibles CSS</t>
+  </si>
+  <si>
+    <t>CSS Flexbox</t>
+  </si>
+  <si>
+    <t>css-flexbox</t>
+  </si>
+  <si>
+    <t>Grillage CSS</t>
+  </si>
+  <si>
+    <t>CSS Grid</t>
+  </si>
+  <si>
+    <t>css-grid</t>
+  </si>
+  <si>
+    <t>Accessibilité HTML</t>
+  </si>
+  <si>
+    <t>HTML Accessibility</t>
+  </si>
+  <si>
+    <t>html-accessibility</t>
+  </si>
+  <si>
+    <t>Sécurité Web</t>
+  </si>
+  <si>
+    <t>Web Security</t>
+  </si>
+  <si>
+    <t>web-security</t>
+  </si>
+  <si>
+    <t>Optimisation des performances Web</t>
+  </si>
+  <si>
+    <t>Web Performance Optimization</t>
+  </si>
+  <si>
+    <t>web-performance-optimization</t>
+  </si>
+  <si>
+    <t>Outils de développement Web</t>
+  </si>
+  <si>
+    <t>Web Development Tools</t>
+  </si>
+  <si>
+    <t>web-development-tools</t>
+  </si>
+  <si>
+    <t>Déploiement d'un site Web</t>
+  </si>
+  <si>
+    <t>Deploying a Website</t>
+  </si>
+  <si>
+    <t>deploying-a-website</t>
+  </si>
+  <si>
+    <t>reference HTML</t>
+  </si>
+  <si>
+    <t>HTML Reference</t>
+  </si>
+  <si>
+    <t>html-reference</t>
+  </si>
+  <si>
+    <t>reference CSS</t>
+  </si>
+  <si>
+    <t>CSS Reference</t>
+  </si>
+  <si>
+    <t>css-reference</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>structure-de-base</t>
+  </si>
+  <si>
+    <t>contenu-et-structure-de-la-page</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>accessibilit-</t>
+  </si>
+  <si>
+    <t>s-curit-</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>outils</t>
+  </si>
+  <si>
+    <t>d-ploiement</t>
+  </si>
+  <si>
+    <t>html-introduction</t>
+  </si>
+  <si>
+    <t>html-basic</t>
+  </si>
+  <si>
+    <t>html-styles</t>
+  </si>
+  <si>
+    <t>html-formatting</t>
+  </si>
+  <si>
+    <t>html-quotations</t>
+  </si>
+  <si>
+    <t>html-comments</t>
+  </si>
+  <si>
+    <t>html-css</t>
+  </si>
+  <si>
+    <t>html-favicon</t>
+  </si>
+  <si>
+    <t>html-page-title</t>
+  </si>
+  <si>
+    <t>html-block---inline</t>
+  </si>
+  <si>
+    <t>html-iframes</t>
+  </si>
+  <si>
+    <t>html-javascript</t>
+  </si>
+  <si>
+    <t>html-file-paths</t>
+  </si>
+  <si>
+    <t>html-head</t>
+  </si>
+  <si>
+    <t>html-responsive</t>
+  </si>
+  <si>
+    <t>html-computercode</t>
+  </si>
+  <si>
+    <t>html-style-guide</t>
+  </si>
+  <si>
+    <t>html-entities</t>
+  </si>
+  <si>
+    <t>html-symbols</t>
+  </si>
+  <si>
+    <t>html-emojis</t>
+  </si>
+  <si>
+    <t>html-charsets</t>
+  </si>
+  <si>
+    <t>html-url-encode</t>
+  </si>
+  <si>
+    <t>html-vs--xhtml</t>
+  </si>
+  <si>
+    <t>html-form-attributes</t>
+  </si>
+  <si>
+    <t>html-form-elements</t>
+  </si>
+  <si>
+    <t>html-input-types</t>
+  </si>
+  <si>
+    <t>html-input-attributes</t>
+  </si>
+  <si>
+    <t>input-form-attributes</t>
+  </si>
+  <si>
+    <t>apprendre-css</t>
+  </si>
+  <si>
+    <t>apprendre-javascript</t>
+  </si>
+  <si>
+    <t>visuels-et-multim-dia</t>
+  </si>
+  <si>
+    <t>interactivit-</t>
+  </si>
+  <si>
+    <t>sujets-avanc-s</t>
   </si>
 </sst>
 </file>
@@ -125,9 +955,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -409,10 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +1258,7 @@
     <col min="6" max="6" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +1277,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +1298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -477,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -503,4 +1341,2188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(F2)</f>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G8" si="0">CONCATENATE(F3)</f>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>html-w3schools</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",F2))</f>
+        <v>apprendre-html/introduction</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G46" si="0">CONCATENATE("apprendre-html",CONCATENATE("/",F3))</f>
+        <v>apprendre-html/introduction</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/introduction</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/structure-de-base</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/structure-de-base</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/structure-de-base</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/css</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/accessibilit-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/s-curit-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/performance</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/outils</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/d-ploiement</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/reference</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>apprendre-html/reference</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_data/collections.xlsx
+++ b/_data/collections.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100"/>
   </bookViews>
   <sheets>
-    <sheet name="resources" sheetId="1" r:id="rId1"/>
-    <sheet name="resource_categories" sheetId="3" r:id="rId2"/>
-    <sheet name="tutorials" sheetId="2" r:id="rId3"/>
-    <sheet name="self_learnings" sheetId="4" r:id="rId4"/>
-    <sheet name="concept_categories" sheetId="5" r:id="rId5"/>
-    <sheet name="concepts" sheetId="6" r:id="rId6"/>
+    <sheet name="modules" sheetId="8" r:id="rId1"/>
+    <sheet name="parts" sheetId="7" r:id="rId2"/>
+    <sheet name="resources" sheetId="1" r:id="rId3"/>
+    <sheet name="resource_categories" sheetId="3" r:id="rId4"/>
+    <sheet name="tutorials" sheetId="2" r:id="rId5"/>
+    <sheet name="self_learnings" sheetId="4" r:id="rId6"/>
+    <sheet name="concept_categories" sheetId="5" r:id="rId7"/>
+    <sheet name="concepts" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tutorials!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tutorials!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="330">
   <si>
     <t>reference</t>
   </si>
@@ -911,6 +913,117 @@
   </si>
   <si>
     <t>sujets-avanc-s</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>in_book</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Découvrir le plan de formation</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Introduction à la Programmation Web</t>
+  </si>
+  <si>
+    <t>découvrir-langages-web</t>
+  </si>
+  <si>
+    <t>apprendre-php</t>
+  </si>
+  <si>
+    <t>apprendre-sql</t>
+  </si>
+  <si>
+    <t>apprendre-laravel</t>
+  </si>
+  <si>
+    <t>développement-web-laravel</t>
+  </si>
+  <si>
+    <t>Apprenez le rôle crucial du HTML, CSS et JavaScript dans la création de pages web.</t>
+  </si>
+  <si>
+    <t>../images/image.png</t>
+  </si>
+  <si>
+    <t>Développement de Sites Web Statiques avec HTML</t>
+  </si>
+  <si>
+    <t>Développement de Sites Web Statiques avec CSS</t>
+  </si>
+  <si>
+    <t>Programmation Web avec JavaScript</t>
+  </si>
+  <si>
+    <t>Développement de Sites Web Dynamiques avec PHP</t>
+  </si>
+  <si>
+    <t>Création de Bases de Données avec SQL et MySQL</t>
+  </si>
+  <si>
+    <t>Développement d’Applications Web avec Laravel</t>
+  </si>
+  <si>
+    <t>Développement Professionnel d’Applications Web</t>
+  </si>
+  <si>
+    <t>Développement de Sites Web Statiques avec HTML et CSS</t>
+  </si>
+  <si>
+    <t>Développement d'Applications Web avec Laravel</t>
+  </si>
+  <si>
+    <t>Développement Professionnel d'Applications Web</t>
+  </si>
+  <si>
+    <t>Les base de HTML</t>
+  </si>
+  <si>
+    <t>Les base de CSS</t>
+  </si>
+  <si>
+    <t>Les base de Javascript</t>
+  </si>
+  <si>
+    <t>introduction-programmation-web</t>
+  </si>
+  <si>
+    <t>base-html</t>
+  </si>
+  <si>
+    <t>base-css</t>
+  </si>
+  <si>
+    <t>développement-sites-web-statiques</t>
+  </si>
+  <si>
+    <t>base-javascript</t>
+  </si>
+  <si>
+    <t>programmation-web-javaScript</t>
+  </si>
+  <si>
+    <t>développement-sites-dynamiques-php</t>
+  </si>
+  <si>
+    <t>création-bases-données-sql-mysql</t>
+  </si>
+  <si>
+    <t>développement-applications-web-laravel</t>
+  </si>
+  <si>
+    <t>développement-professionnel-applications-web-laravel</t>
   </si>
 </sst>
 </file>
@@ -955,13 +1068,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1243,6 +1368,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="13.21875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1343,7 +1844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G9"/>
@@ -1541,12 +2042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -2477,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2531,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2671,7 +3172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>

--- a/_data/collections.xlsx
+++ b/_data/collections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="8" r:id="rId1"/>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,14 +1515,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="38.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>

--- a/_data/collections.xlsx
+++ b/_data/collections.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="modules" sheetId="8" r:id="rId1"/>
+    <sheet name="modules" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="parts" sheetId="7" r:id="rId2"/>
-    <sheet name="resources" sheetId="1" r:id="rId3"/>
-    <sheet name="resource_categories" sheetId="3" r:id="rId4"/>
-    <sheet name="tutorials" sheetId="2" r:id="rId5"/>
-    <sheet name="self_learnings" sheetId="4" r:id="rId6"/>
-    <sheet name="concept_categories" sheetId="5" r:id="rId7"/>
-    <sheet name="concepts" sheetId="6" r:id="rId8"/>
+    <sheet name="self_learnings" sheetId="4" r:id="rId3"/>
+    <sheet name="concept_categories" sheetId="5" r:id="rId4"/>
+    <sheet name="concepts" sheetId="6" r:id="rId5"/>
+    <sheet name="resources" sheetId="1" r:id="rId6"/>
+    <sheet name="tutorials" sheetId="2" r:id="rId7"/>
+    <sheet name="resource_categories" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tutorials!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">tutorials!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
   <si>
     <t>reference</t>
   </si>
@@ -582,240 +582,12 @@
     <t>html-frames</t>
   </si>
   <si>
-    <t>Introduction au CSS</t>
-  </si>
-  <si>
-    <t>Introduction to CSS</t>
-  </si>
-  <si>
-    <t>introduction-to-css</t>
-  </si>
-  <si>
-    <t>Sélecteurs CSS</t>
-  </si>
-  <si>
-    <t>CSS Selectors</t>
-  </si>
-  <si>
-    <t>css-selectors</t>
-  </si>
-  <si>
-    <t>Propriétés CSS</t>
-  </si>
-  <si>
-    <t>CSS Properties</t>
-  </si>
-  <si>
-    <t>css-properties</t>
-  </si>
-  <si>
-    <t>Mise en page CSS</t>
-  </si>
-  <si>
-    <t>CSS Layout</t>
-  </si>
-  <si>
-    <t>css-layout</t>
-  </si>
-  <si>
-    <t>Typographie CSS</t>
-  </si>
-  <si>
-    <t>CSS Typography</t>
-  </si>
-  <si>
-    <t>css-typography</t>
-  </si>
-  <si>
-    <t>Couleurs CSS</t>
-  </si>
-  <si>
-    <t>CSS Colors</t>
-  </si>
-  <si>
-    <t>css-colors</t>
-  </si>
-  <si>
-    <t>Arrière-plans CSS</t>
-  </si>
-  <si>
-    <t>CSS Backgrounds</t>
-  </si>
-  <si>
-    <t>css-backgrounds</t>
-  </si>
-  <si>
-    <t>Bordures CSS</t>
-  </si>
-  <si>
-    <t>CSS Borders</t>
-  </si>
-  <si>
-    <t>css-borders</t>
-  </si>
-  <si>
-    <t>Marges et paddings CSS</t>
-  </si>
-  <si>
-    <t>CSS Margins and Padding</t>
-  </si>
-  <si>
-    <t>css-margins-and-padding</t>
-  </si>
-  <si>
-    <t>Positionnement CSS</t>
-  </si>
-  <si>
-    <t>CSS Positioning</t>
-  </si>
-  <si>
-    <t>css-positioning</t>
-  </si>
-  <si>
-    <t>Animations CSS</t>
-  </si>
-  <si>
-    <t>CSS Animations</t>
-  </si>
-  <si>
-    <t>css-animations</t>
-  </si>
-  <si>
-    <t>Transitions CSS</t>
-  </si>
-  <si>
-    <t>CSS Transitions</t>
-  </si>
-  <si>
-    <t>css-transitions</t>
-  </si>
-  <si>
-    <t>Pseudo-éléments CSS</t>
-  </si>
-  <si>
-    <t>CSS Pseudo-elements</t>
-  </si>
-  <si>
-    <t>css-pseudo-elements</t>
-  </si>
-  <si>
-    <t>Médias CSS</t>
-  </si>
-  <si>
-    <t>CSS Media Queries</t>
-  </si>
-  <si>
-    <t>css-media-queries</t>
-  </si>
-  <si>
-    <t>Boîtes flexibles CSS</t>
-  </si>
-  <si>
-    <t>CSS Flexbox</t>
-  </si>
-  <si>
-    <t>css-flexbox</t>
-  </si>
-  <si>
-    <t>Grillage CSS</t>
-  </si>
-  <si>
-    <t>CSS Grid</t>
-  </si>
-  <si>
-    <t>css-grid</t>
-  </si>
-  <si>
-    <t>Accessibilité HTML</t>
-  </si>
-  <si>
-    <t>HTML Accessibility</t>
-  </si>
-  <si>
-    <t>html-accessibility</t>
-  </si>
-  <si>
-    <t>Sécurité Web</t>
-  </si>
-  <si>
-    <t>Web Security</t>
-  </si>
-  <si>
-    <t>web-security</t>
-  </si>
-  <si>
-    <t>Optimisation des performances Web</t>
-  </si>
-  <si>
-    <t>Web Performance Optimization</t>
-  </si>
-  <si>
-    <t>web-performance-optimization</t>
-  </si>
-  <si>
-    <t>Outils de développement Web</t>
-  </si>
-  <si>
-    <t>Web Development Tools</t>
-  </si>
-  <si>
-    <t>web-development-tools</t>
-  </si>
-  <si>
-    <t>Déploiement d'un site Web</t>
-  </si>
-  <si>
-    <t>Deploying a Website</t>
-  </si>
-  <si>
-    <t>deploying-a-website</t>
-  </si>
-  <si>
-    <t>reference HTML</t>
-  </si>
-  <si>
-    <t>HTML Reference</t>
-  </si>
-  <si>
-    <t>html-reference</t>
-  </si>
-  <si>
-    <t>reference CSS</t>
-  </si>
-  <si>
-    <t>CSS Reference</t>
-  </si>
-  <si>
-    <t>css-reference</t>
-  </si>
-  <si>
     <t>introduction</t>
   </si>
   <si>
     <t>structure-de-base</t>
   </si>
   <si>
-    <t>contenu-et-structure-de-la-page</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>accessibilit-</t>
-  </si>
-  <si>
-    <t>s-curit-</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>outils</t>
-  </si>
-  <si>
-    <t>d-ploiement</t>
-  </si>
-  <si>
     <t>html-introduction</t>
   </si>
   <si>
@@ -906,15 +678,6 @@
     <t>apprendre-javascript</t>
   </si>
   <si>
-    <t>visuels-et-multim-dia</t>
-  </si>
-  <si>
-    <t>interactivit-</t>
-  </si>
-  <si>
-    <t>sujets-avanc-s</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
@@ -1024,6 +787,30 @@
   </si>
   <si>
     <t>développement-professionnel-applications-web-laravel</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>visuels-multimédia</t>
+  </si>
+  <si>
+    <t>interactivité</t>
+  </si>
+  <si>
+    <t>sujets-avancés</t>
+  </si>
+  <si>
+    <t>contenu-et-structure-page</t>
+  </si>
+  <si>
+    <t>auto-apprentissage</t>
+  </si>
+  <si>
+    <t>Auto apprentissage</t>
+  </si>
+  <si>
+    <t>Liste des auto apprentissage</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1158,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,15 +1180,15 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1409,10 +1196,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1420,10 +1207,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1431,10 +1218,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1442,10 +1229,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1453,10 +1240,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1464,10 +1251,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -1475,10 +1262,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -1486,10 +1273,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -1497,10 +1284,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -1513,16 +1300,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="38.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="7" customWidth="1"/>
@@ -1530,12 +1317,12 @@
     <col min="8" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -1544,59 +1331,65 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>120</v>
       </c>
@@ -1604,136 +1397,177 @@
         <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G9" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G10" s="6">
         <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1744,11 +1578,742 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="45.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B2))</f>
+        <v>apprendre-html/introduction</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B3))</f>
+        <v>apprendre-html/introduction</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B4))</f>
+        <v>apprendre-html/structure-de-base</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B5))</f>
+        <v>apprendre-html/structure-de-base</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B6))</f>
+        <v>apprendre-html/structure-de-base</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B7))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B8))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B9))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B10))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B11))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B12))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B13))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B14))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(B15,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B15))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(B16,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B16))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(B17,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B17))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B18))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B19))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B20))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(B21,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B21))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(B22,concept_categories!$A$1:$F$8,5,FALSE)</f>
+        <v>apprendre-html</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" t="str">
+        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B22))</f>
+        <v>apprendre-html/contenu-et-structure-page</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1844,210 +2409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE(F2)</f>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G8" si="0">CONCATENATE(F3)</f>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>html-w3schools</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -2111,7 +2478,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2151,7 +2518,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -2251,7 +2618,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -2271,7 +2638,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -2291,7 +2658,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -2311,7 +2678,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -2351,7 +2718,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -2411,7 +2778,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -2431,7 +2798,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -2491,7 +2858,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -2571,7 +2938,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -2591,7 +2958,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -2611,7 +2978,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -2631,7 +2998,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -2671,7 +3038,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
@@ -2691,7 +3058,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -2731,7 +3098,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -2751,7 +3118,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -2771,7 +3138,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -2791,7 +3158,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
         <v>71</v>
@@ -2811,7 +3178,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -2831,7 +3198,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
@@ -2851,7 +3218,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
@@ -2888,7 +3255,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
@@ -2905,7 +3272,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
         <v>77</v>
@@ -2922,7 +3289,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
         <v>78</v>
@@ -2939,7 +3306,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
         <v>79</v>
@@ -2956,7 +3323,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
         <v>80</v>
@@ -2978,216 +3345,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="45.21875" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3203,11 +3378,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>34</v>
@@ -3215,813 +3390,153 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",F2))</f>
-        <v>apprendre-html/introduction</v>
+        <f>CONCATENATE(F2)</f>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G46" si="0">CONCATENATE("apprendre-html",CONCATENATE("/",F3))</f>
-        <v>apprendre-html/introduction</v>
+        <f t="shared" ref="G3:G8" si="0">CONCATENATE(F3)</f>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>apprendre-html/introduction</v>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>apprendre-html/structure-de-base</v>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>apprendre-html/structure-de-base</v>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>apprendre-html/structure-de-base</v>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
+        <v>html-w3schools</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/contenu-et-structure-de-la-page</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" t="s">
-        <v>254</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" t="s">
-        <v>254</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" t="s">
-        <v>254</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" t="s">
-        <v>254</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" t="s">
-        <v>254</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" t="s">
-        <v>254</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" t="s">
-        <v>254</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" t="s">
-        <v>254</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>226</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" t="s">
-        <v>254</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/css</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/accessibilit-</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" t="s">
-        <v>256</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/s-curit-</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" t="s">
-        <v>257</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/performance</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/outils</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" t="s">
-        <v>243</v>
-      </c>
-      <c r="F44" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/d-ploiement</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/reference</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" t="s">
-        <v>249</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>apprendre-html/reference</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_data/collections.xlsx
+++ b/_data/collections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8100" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="8" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="259">
   <si>
     <t>reference</t>
   </si>
@@ -1578,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1590,7 @@
     <col min="2" max="2" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1600,29 +1600,41 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1858,7 +1870,7 @@
         <v>136</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B2))</f>
+        <f t="shared" ref="H2:H22" si="0">CONCATENATE("apprendre-html",CONCATENATE("/",B2))</f>
         <v>apprendre-html/introduction</v>
       </c>
     </row>
@@ -1880,7 +1892,7 @@
         <v>38</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B3))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/introduction</v>
       </c>
     </row>
@@ -1902,7 +1914,7 @@
         <v>141</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B4))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/structure-de-base</v>
       </c>
     </row>
@@ -1924,7 +1936,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B5))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/structure-de-base</v>
       </c>
     </row>
@@ -1946,7 +1958,7 @@
         <v>41</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B6))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/structure-de-base</v>
       </c>
     </row>
@@ -1968,7 +1980,7 @@
         <v>42</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B7))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -1990,7 +2002,7 @@
         <v>43</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B8))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2012,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B9))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2034,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B10))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2056,7 +2068,7 @@
         <v>156</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B11))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2078,7 +2090,7 @@
         <v>57</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B12))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2100,7 +2112,7 @@
         <v>58</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B13))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2122,7 +2134,7 @@
         <v>163</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B14))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2144,7 +2156,7 @@
         <v>67</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B15))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2166,7 +2178,7 @@
         <v>64</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B16))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2188,7 +2200,7 @@
         <v>170</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B17))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2210,7 +2222,7 @@
         <v>48</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B18))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2232,7 +2244,7 @@
         <v>50</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B19))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2254,7 +2266,7 @@
         <v>51</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B20))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2276,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B21))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
@@ -2298,7 +2310,7 @@
         <v>180</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE("apprendre-html",CONCATENATE("/",B22))</f>
+        <f t="shared" si="0"/>
         <v>apprendre-html/contenu-et-structure-page</v>
       </c>
     </row>
